--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -49,6 +55,15 @@
     <t>华安上证龙头ETF</t>
   </si>
   <si>
+    <t>50.36</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
     <t>94.29</t>
   </si>
   <si>
@@ -59,6 +74,15 @@
   </si>
   <si>
     <t>1.39</t>
+  </si>
+  <si>
+    <t>1.4202</t>
+  </si>
+  <si>
+    <t>0.2857</t>
+  </si>
+  <si>
+    <t>0.0107</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,64 +462,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001643</t>
-  </si>
-  <si>
-    <t>001644</t>
-  </si>
-  <si>
-    <t>510190</t>
-  </si>
-  <si>
-    <t>汇丰晋信智造先锋股票A</t>
-  </si>
-  <si>
-    <t>汇丰晋信智造先锋股票C</t>
-  </si>
-  <si>
-    <t>华安上证龙头ETF</t>
-  </si>
-  <si>
-    <t>50.36</t>
-  </si>
-  <si>
-    <t>10.13</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>94.29</t>
-  </si>
-  <si>
-    <t>96.93</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.4202</t>
-  </si>
-  <si>
-    <t>0.2857</t>
-  </si>
-  <si>
-    <t>0.0107</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -1340,12 +1340,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.46</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1371,13 +1414,3425 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5838</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4763,7 +4764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4774,17 +4775,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4794,14 +4815,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>89</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.29</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4810,14 +4853,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.46</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>131.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2413</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4826,13 +4891,3517 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4172</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9339</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8925</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8814</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6768</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6506</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6400</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5560</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4855</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4300</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4202</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2857</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510190</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安上证龙头ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -675,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011271</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富价值成长均衡投资混合A</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.82</t>
+          <t>63.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2609</t>
+          <t>5.4268</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -713,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>010340</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>易方达高质量严选三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>131.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0298</t>
+          <t>5.2413</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -751,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>001832</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>易方达瑞恒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.20</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6948</t>
+          <t>2.4731</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -789,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6423</t>
+          <t>2.2400</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -827,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>001373</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>易方达新丝路灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>43.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>89.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2176</t>
+          <t>1.4329</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -865,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>530005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>建信优化配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>29.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2141</t>
+          <t>1.4172</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -903,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1636</t>
+          <t>1.3956</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -941,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72.71</t>
+          <t>91.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>1.0750</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -979,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009999</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方中国红利混合</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>18.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.37</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0504</t>
+          <t>0.9339</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1017,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0433</t>
+          <t>0.8925</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1055,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>72.71</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.8814</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1093,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011272</t>
+          <t>014228</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富价值成长均衡投资混合C</t>
+          <t>浦银安盛品质优选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>78.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.8498</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1131,36 +1061,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>011251</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>华安聚嘉精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>31.98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.7547</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1169,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>510190</t>
+          <t>000925</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安上证龙头ETF</t>
+          <t>汇添富外延增长主题股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>86.12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.6768</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1207,36 +1137,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004352</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>北信瑞丰研究精选股票</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.6506</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1245,36 +1175,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008893</t>
+          <t>010385</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合A</t>
+          <t>华安汇嘉精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.74</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.6400</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1283,36 +1213,2886 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008894</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合C</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5560</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4855</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4300</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.74</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4764,7 +7544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,7 +7565,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4815,36 +7595,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>011271</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>汇添富价值成长均衡投资混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.77</t>
+          <t>35.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.4268</t>
+          <t>1.2609</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4853,36 +7633,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010340</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达高质量严选三年持有期混合</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>131.36</t>
+          <t>24.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.2413</t>
+          <t>1.0298</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4891,36 +7671,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001832</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞恒灵活配置混合</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35.33</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.4731</t>
+          <t>0.6948</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4929,36 +7709,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>82.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2400</t>
+          <t>0.6423</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4967,36 +7747,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001373</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达新丝路灵活配置混合</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.42</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4329</t>
+          <t>0.2176</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5005,36 +7785,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>530005</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信优化配置混合</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.16</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.4172</t>
+          <t>0.2141</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -5043,36 +7823,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>89.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.3956</t>
+          <t>0.1636</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -5081,36 +7861,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>72.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.0750</t>
+          <t>0.0752</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -5119,36 +7899,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>85.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9339</t>
+          <t>0.0504</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -5157,36 +7937,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8925</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -5195,36 +7975,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>009908</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>湘财长泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>72.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8814</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -5233,36 +8013,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014228</t>
+          <t>011272</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浦银安盛品质优选混合A</t>
+          <t>汇添富价值成长均衡投资混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.02</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -5271,36 +8051,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011251</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安聚嘉精选混合A</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31.98</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.7547</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -5309,36 +8089,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000925</t>
+          <t>510190</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票A</t>
+          <t>华安上证龙头ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>96.82</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.6768</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -5347,36 +8127,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>004352</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>北信瑞丰研究精选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.6506</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -5385,36 +8165,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010385</t>
+          <t>008893</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合A</t>
+          <t>创金合信鑫利混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>27.74</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6400</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -5423,2886 +8203,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>008894</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>创金合信鑫利混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>27.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.6324</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>013919</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>12.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5736</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006371</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长安鑫盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5638</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014967</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.5560</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5447</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>75.20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4855</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>74.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4300</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.47</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4251</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>013275</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3704</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011252</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华安聚嘉精选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>14.34</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3384</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005743</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长安裕隆灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3171</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005273</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华商可转债债券A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>11.55</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1732</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1679</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>630011</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华商主题精选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1627</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>013513</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>长安先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1578</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1531</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001901</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>40.63</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1264</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006022</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1237</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005744</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>长安裕隆灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1221</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>561550</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证500增强策略ETF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>98.95</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1219</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010460</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>兴业研究精选混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>84.09</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1156</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>99.51</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1125</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010386</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华安汇嘉精选混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1025</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>013596</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0908</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005341</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0896</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006372</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长安鑫盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0887</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0799</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>000058</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国联安安泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>35.42</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>240011</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>华宝大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005342</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010642</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>农银汇理秀山一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>015394</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>005050</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>长安鑫旺价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004131</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>国联安鑫发混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>29.58</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>005049</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>长安鑫旺价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>014229</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>浦银安盛品质优选混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>78.02</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>004680</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>前海开源裕瑞混合A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001162</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>前海开源优势蓝筹股票A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>014608</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>中欧周期景气混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>013514</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>长安先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>900027</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>005328</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>前海开源价值策略股票</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>65.11</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>010564</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>民生加银瑞利混合</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>23.27</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>003760</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>国泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>013142</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>014609</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>中欧周期景气混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>006190</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>前海开源裕瑞混合C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>001638</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>前海开源优势蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>011424</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>汇添富外延增长主题股票C</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>86.12</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>006457</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>平安估值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>58.87</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>006458</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>平安估值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>58.87</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>004132</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>国联安鑫发混合C</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>29.58</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>001902</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>40.63</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>014181</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>015436</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>建信优化配置混合C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>003761</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>国泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>900087</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>900077</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>66.78</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>87.34</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8316,96 +8246,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.18</v>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>89</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.29</v>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.72</v>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>35.18</v>
+        <v>37.81</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>10.29</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>4.46</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -549,6 +566,2870 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>124.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3199</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3080</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0667</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8776</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6402</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005294</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德新宜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011224</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011225</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4100,7 +6981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7538,7 +10419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8240,7 +11121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600546-山煤国际.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>37.81</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>35.18</v>
+        <v>37.81</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>10.29</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>4.46</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -566,6 +583,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>017787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9643</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6698</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6269</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4939</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4191</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>017090</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3429,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6981,7 +8496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10419,7 +11934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11121,7 +12636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
